--- a/01_Data/Femizide/femizide_Schweiz_raw.xlsx
+++ b/01_Data/Femizide/femizide_Schweiz_raw.xlsx
@@ -5,22 +5,26 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LucaK\OneDrive\Desktop\Femizide_Schweiz\01_Data\Femizide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LucaK\OneDrive\Desktop\GitHub\Femizide_Schweiz\01_Data\Femizide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E528217-6ECA-4796-9789-7E09A0C6A7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0618B896-B19C-4E94-B461-B7DCE3ED7992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="18576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6945" yWindow="4185" windowWidth="43200" windowHeight="17145" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2025" sheetId="1" r:id="rId1"/>
+    <sheet name="2024" sheetId="2" r:id="rId2"/>
+    <sheet name="2023" sheetId="3" r:id="rId3"/>
+    <sheet name="2022" sheetId="4" r:id="rId4"/>
+    <sheet name="2020" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="302">
   <si>
     <t>rowid</t>
   </si>
@@ -157,9 +161,6 @@
     <t>Rorschach</t>
   </si>
   <si>
-    <t>Sankt Gallen</t>
-  </si>
-  <si>
     <t>Die Frau wurde 42 Jahre alt.</t>
   </si>
   <si>
@@ -242,6 +243,693 @@
   </si>
   <si>
     <t>Mutter und Tochter überleben. Sie sind 36 und 14 Jahre alt.</t>
+  </si>
+  <si>
+    <t>2025_01</t>
+  </si>
+  <si>
+    <t>2025_02</t>
+  </si>
+  <si>
+    <t>2025_03</t>
+  </si>
+  <si>
+    <t>2025_04</t>
+  </si>
+  <si>
+    <t>2025_05</t>
+  </si>
+  <si>
+    <t>2025_06</t>
+  </si>
+  <si>
+    <t>2025_07</t>
+  </si>
+  <si>
+    <t>2025_08</t>
+  </si>
+  <si>
+    <t>2025_09</t>
+  </si>
+  <si>
+    <t>2025_10</t>
+  </si>
+  <si>
+    <t>2025_11</t>
+  </si>
+  <si>
+    <t>2025_12</t>
+  </si>
+  <si>
+    <t>2025_13</t>
+  </si>
+  <si>
+    <t>2025_14</t>
+  </si>
+  <si>
+    <t>2025_15</t>
+  </si>
+  <si>
+    <t>2025_16</t>
+  </si>
+  <si>
+    <t>2025_17</t>
+  </si>
+  <si>
+    <t>2025_18</t>
+  </si>
+  <si>
+    <t>2025_19</t>
+  </si>
+  <si>
+    <t>2025_20</t>
+  </si>
+  <si>
+    <t>2025_21</t>
+  </si>
+  <si>
+    <t>2025_22</t>
+  </si>
+  <si>
+    <t>2025_23</t>
+  </si>
+  <si>
+    <t>2025_24</t>
+  </si>
+  <si>
+    <t>2025_25</t>
+  </si>
+  <si>
+    <t>2025_26</t>
+  </si>
+  <si>
+    <t>2025_27</t>
+  </si>
+  <si>
+    <t>2025_28</t>
+  </si>
+  <si>
+    <t>2025_29</t>
+  </si>
+  <si>
+    <t>2025_30</t>
+  </si>
+  <si>
+    <t>2024_01</t>
+  </si>
+  <si>
+    <t>2024_02</t>
+  </si>
+  <si>
+    <t>2024_03</t>
+  </si>
+  <si>
+    <t>2024_04</t>
+  </si>
+  <si>
+    <t>2024_05</t>
+  </si>
+  <si>
+    <t>2024_06</t>
+  </si>
+  <si>
+    <t>2024_07</t>
+  </si>
+  <si>
+    <t>2024_08</t>
+  </si>
+  <si>
+    <t>2024_09</t>
+  </si>
+  <si>
+    <t>2024_10</t>
+  </si>
+  <si>
+    <t>2024_11</t>
+  </si>
+  <si>
+    <t>2024_12</t>
+  </si>
+  <si>
+    <t>2024_13</t>
+  </si>
+  <si>
+    <t>2024_14</t>
+  </si>
+  <si>
+    <t>2024_15</t>
+  </si>
+  <si>
+    <t>2024_16</t>
+  </si>
+  <si>
+    <t>2024_17</t>
+  </si>
+  <si>
+    <t>2024_18</t>
+  </si>
+  <si>
+    <t>2024_19</t>
+  </si>
+  <si>
+    <t>2024_20</t>
+  </si>
+  <si>
+    <t>2024_21</t>
+  </si>
+  <si>
+    <t>Le Locle</t>
+  </si>
+  <si>
+    <t>Renens</t>
+  </si>
+  <si>
+    <t>Basel</t>
+  </si>
+  <si>
+    <t>Morbio Inferiore</t>
+  </si>
+  <si>
+    <t>La Chaux-de-Fonds</t>
+  </si>
+  <si>
+    <t>Ried-Brig</t>
+  </si>
+  <si>
+    <t>Chiasso</t>
+  </si>
+  <si>
+    <t>Effretikon</t>
+  </si>
+  <si>
+    <t>Vétroz</t>
+  </si>
+  <si>
+    <t>Sursee</t>
+  </si>
+  <si>
+    <t>Knonau</t>
+  </si>
+  <si>
+    <t>Männedorf</t>
+  </si>
+  <si>
+    <t>Frauenfeld</t>
+  </si>
+  <si>
+    <t>Vevey</t>
+  </si>
+  <si>
+    <t>Binningen</t>
+  </si>
+  <si>
+    <t>Rhein bei Laufen-Uhwiesen</t>
+  </si>
+  <si>
+    <t>Wädenswil</t>
+  </si>
+  <si>
+    <t>Allaman</t>
+  </si>
+  <si>
+    <t>Basel-Landschaft</t>
+  </si>
+  <si>
+    <t>Die Frau überlebt. Sie ist 33 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 61 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 94 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frauen wurden 42 und 17 Jahre alt</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 29 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 82 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 38 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 75 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 74 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 56 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 46 Jahre alt.</t>
+  </si>
+  <si>
+    <t>2023_01</t>
+  </si>
+  <si>
+    <t>2023_02</t>
+  </si>
+  <si>
+    <t>2023_03</t>
+  </si>
+  <si>
+    <t>2023_04</t>
+  </si>
+  <si>
+    <t>2023_05</t>
+  </si>
+  <si>
+    <t>2023_06</t>
+  </si>
+  <si>
+    <t>2023_07</t>
+  </si>
+  <si>
+    <t>2023_08</t>
+  </si>
+  <si>
+    <t>2023_09</t>
+  </si>
+  <si>
+    <t>2023_10</t>
+  </si>
+  <si>
+    <t>2023_11</t>
+  </si>
+  <si>
+    <t>2023_12</t>
+  </si>
+  <si>
+    <t>2023_13</t>
+  </si>
+  <si>
+    <t>2023_14</t>
+  </si>
+  <si>
+    <t>2023_15</t>
+  </si>
+  <si>
+    <t>2023_16</t>
+  </si>
+  <si>
+    <t>2023_17</t>
+  </si>
+  <si>
+    <t>2023_18</t>
+  </si>
+  <si>
+    <t>2023_19</t>
+  </si>
+  <si>
+    <t>2023_20</t>
+  </si>
+  <si>
+    <t>2023_21</t>
+  </si>
+  <si>
+    <t>2023_22</t>
+  </si>
+  <si>
+    <t>Siegershausen</t>
+  </si>
+  <si>
+    <t>Birsfelden</t>
+  </si>
+  <si>
+    <t>Wetzikon</t>
+  </si>
+  <si>
+    <t>Windisch</t>
+  </si>
+  <si>
+    <t>Sitten</t>
+  </si>
+  <si>
+    <t>Richterswil</t>
+  </si>
+  <si>
+    <t>Embrach</t>
+  </si>
+  <si>
+    <t>Monthey</t>
+  </si>
+  <si>
+    <t>Penthaz</t>
+  </si>
+  <si>
+    <t>Lengnau</t>
+  </si>
+  <si>
+    <t>Erlen</t>
+  </si>
+  <si>
+    <t>Bellach</t>
+  </si>
+  <si>
+    <t>Dietikon</t>
+  </si>
+  <si>
+    <t>Vernier</t>
+  </si>
+  <si>
+    <t>Siders</t>
+  </si>
+  <si>
+    <t>Yverdon-les-Bains</t>
+  </si>
+  <si>
+    <t>Rupperswil</t>
+  </si>
+  <si>
+    <t>Genf</t>
+  </si>
+  <si>
+    <t>Die Frau überlebt. Sie ist 43 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau überlebt. Sie ist 38 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau überlebt. Sie ist 42 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau überlebt. Sie ist 40 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 36 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 80 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 18 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 54 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 23 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 37 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 39 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 79 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 40 Jahre, die Mädchen 13, 9 und 5 Jahre alt.</t>
+  </si>
+  <si>
+    <t>2022_01</t>
+  </si>
+  <si>
+    <t>2022_02</t>
+  </si>
+  <si>
+    <t>2022_03</t>
+  </si>
+  <si>
+    <t>2022_04</t>
+  </si>
+  <si>
+    <t>2022_05</t>
+  </si>
+  <si>
+    <t>2022_06</t>
+  </si>
+  <si>
+    <t>2022_07</t>
+  </si>
+  <si>
+    <t>2022_08</t>
+  </si>
+  <si>
+    <t>2022_09</t>
+  </si>
+  <si>
+    <t>2022_10</t>
+  </si>
+  <si>
+    <t>2022_11</t>
+  </si>
+  <si>
+    <t>2022_12</t>
+  </si>
+  <si>
+    <t>2022_13</t>
+  </si>
+  <si>
+    <t>2022_14</t>
+  </si>
+  <si>
+    <t>2022_15</t>
+  </si>
+  <si>
+    <t>2022_16</t>
+  </si>
+  <si>
+    <t>2022_17</t>
+  </si>
+  <si>
+    <t>2022_18</t>
+  </si>
+  <si>
+    <t>2022_19</t>
+  </si>
+  <si>
+    <t>2022_20</t>
+  </si>
+  <si>
+    <t>2022_21</t>
+  </si>
+  <si>
+    <t>Ende Januar 2024, tot aufgefunden im Rhein bei Laufen-Uhwiesen, Zürich. Die Frau wurde 27 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Areuse</t>
+  </si>
+  <si>
+    <t>Stabio</t>
+  </si>
+  <si>
+    <t>Winterthur</t>
+  </si>
+  <si>
+    <t>Die Frau überlebt. Sie ist 50 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau überlebt. Sie ist 52 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Sie ist 29 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Sie ist 45 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Sie ist 48 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Kehrsatz</t>
+  </si>
+  <si>
+    <t>Altstetten</t>
+  </si>
+  <si>
+    <t>Bergdietikon</t>
+  </si>
+  <si>
+    <t>Rorschacherberg</t>
+  </si>
+  <si>
+    <t>Elsau</t>
+  </si>
+  <si>
+    <t>Hochwald</t>
+  </si>
+  <si>
+    <t>Büren an der Aare</t>
+  </si>
+  <si>
+    <t>Avegno</t>
+  </si>
+  <si>
+    <t>Wallisellen</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Rapperswil-Jona</t>
+  </si>
+  <si>
+    <t>Ziefen</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 60 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 41 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 86 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Hamburg, Deutschland. Ein 22-jähriger Schweizer tötet eine Frau.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 22 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 32 Jahre alt.</t>
+  </si>
+  <si>
+    <t>2020_01</t>
+  </si>
+  <si>
+    <t>2020_02</t>
+  </si>
+  <si>
+    <t>2020_03</t>
+  </si>
+  <si>
+    <t>2020_04</t>
+  </si>
+  <si>
+    <t>2020_05</t>
+  </si>
+  <si>
+    <t>2020_06</t>
+  </si>
+  <si>
+    <t>2020_07</t>
+  </si>
+  <si>
+    <t>2020_08</t>
+  </si>
+  <si>
+    <t>2020_09</t>
+  </si>
+  <si>
+    <t>2020_10</t>
+  </si>
+  <si>
+    <t>2020_11</t>
+  </si>
+  <si>
+    <t>2020_12</t>
+  </si>
+  <si>
+    <t>2020_13</t>
+  </si>
+  <si>
+    <t>2020_14</t>
+  </si>
+  <si>
+    <t>2020_15</t>
+  </si>
+  <si>
+    <t>2020_16</t>
+  </si>
+  <si>
+    <t>2020_17</t>
+  </si>
+  <si>
+    <t>2020_18</t>
+  </si>
+  <si>
+    <t>2020_19</t>
+  </si>
+  <si>
+    <t>2020_20</t>
+  </si>
+  <si>
+    <t>2020_21</t>
+  </si>
+  <si>
+    <t>Banwald</t>
+  </si>
+  <si>
+    <t>Prilly</t>
+  </si>
+  <si>
+    <t>Rombach</t>
+  </si>
+  <si>
+    <t>Nussbaumen</t>
+  </si>
+  <si>
+    <t>Sattel</t>
+  </si>
+  <si>
+    <t>Schwyz</t>
+  </si>
+  <si>
+    <t>Olten</t>
+  </si>
+  <si>
+    <t>Die junge Frau überlebt. Sie ist 14 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau überlebt. Sie ist 34 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau überlebt. Sie ist 53 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau überlebt. Sie ist 28 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Bolligen</t>
+  </si>
+  <si>
+    <t>Riggisberg</t>
+  </si>
+  <si>
+    <t>Wiesendangen</t>
+  </si>
+  <si>
+    <t>St. Gallen</t>
+  </si>
+  <si>
+    <t>Montreux</t>
+  </si>
+  <si>
+    <t>Giubiasco</t>
+  </si>
+  <si>
+    <t>Wangen bei Olten</t>
+  </si>
+  <si>
+    <t>Meierskappel</t>
+  </si>
+  <si>
+    <t>Oey-Diemtigen</t>
+  </si>
+  <si>
+    <t>Hombrechtikon</t>
+  </si>
+  <si>
+    <t>Ein Mann aus Villeneuve, Waadt, tötet seine Frau und die zwei Söhne in den Ferien im Kosovo. Die Frau wurde 48 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 24 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 85 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau wurde 59 Jahre alt.</t>
   </si>
 </sst>
 </file>
@@ -251,7 +939,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +951,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -288,12 +982,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,20 +1296,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="77.88671875" customWidth="1"/>
-    <col min="6" max="6" width="50" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,10 +1317,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -633,18 +1329,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
       </c>
       <c r="B2" s="2">
         <v>45671</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -653,18 +1349,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
       </c>
       <c r="B3" s="2">
         <v>45673</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -673,9 +1369,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
       </c>
       <c r="B4" s="2">
         <v>45682</v>
@@ -693,18 +1389,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>76</v>
       </c>
       <c r="B5" s="2">
         <v>45683</v>
       </c>
       <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -713,18 +1409,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
       </c>
       <c r="B6" s="2">
         <v>45695</v>
       </c>
       <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
@@ -733,18 +1429,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
       </c>
       <c r="B7" s="2">
         <v>45698</v>
       </c>
       <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -753,18 +1449,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
       </c>
       <c r="B8" s="2">
         <v>45705</v>
       </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
       </c>
       <c r="E8" t="s">
         <v>24</v>
@@ -773,18 +1469,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
       </c>
       <c r="B9" s="2">
         <v>45728</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -793,38 +1489,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>81</v>
       </c>
       <c r="B10" s="2">
         <v>45738</v>
       </c>
       <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>82</v>
       </c>
       <c r="B11" s="2">
         <v>45740</v>
       </c>
       <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
@@ -833,18 +1529,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>83</v>
       </c>
       <c r="B12" s="2">
         <v>45750</v>
       </c>
       <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
         <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
@@ -853,38 +1549,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>84</v>
       </c>
       <c r="B13" s="2">
         <v>45757</v>
       </c>
       <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>85</v>
       </c>
       <c r="B14" s="2">
         <v>45774</v>
       </c>
       <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
         <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -893,18 +1589,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>86</v>
       </c>
       <c r="B15" s="2">
         <v>45822</v>
       </c>
       <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
         <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
       </c>
       <c r="E15" t="s">
         <v>39</v>
@@ -913,38 +1609,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
       <c r="B16" s="2">
         <v>45825</v>
       </c>
       <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>88</v>
       </c>
       <c r="B17" s="2">
         <v>45843</v>
       </c>
       <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
         <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -953,284 +1649,2156 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>89</v>
       </c>
       <c r="B18" s="2">
         <v>45888</v>
       </c>
       <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
         <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45894</v>
+      </c>
+      <c r="C19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45895</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45915</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45969</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45970</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45674</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45678</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45719</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45744</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45756</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45761</v>
+      </c>
+      <c r="C29" t="s">
+        <v>291</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45839</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45840</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0ACE054-CF54-402D-BA14-1540848E52E5}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45296</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45306</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45322</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45335</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45367</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45376</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45433</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45447</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45479</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45501</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45512</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45528</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45541</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45546</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45571</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45588</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45590</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45622</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45623</v>
+      </c>
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45629</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45620</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB42D47A-EC97-4604-B6C9-50F5C4DCAF25}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44972</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44994</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45006</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45009</v>
+      </c>
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45011</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45024</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45030</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45072</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45073</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45096</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="3">
+        <v>45111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="3">
+        <v>45141</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="3">
+        <v>45193</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45200</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45241</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45258</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
       </c>
       <c r="D18" t="s">
         <v>43</v>
       </c>
       <c r="E18" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45271</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44999</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44999</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45019</v>
+      </c>
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45241</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504B19E9-6DB8-44C6-AC2E-AFFBAC43FF71}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44603</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44619</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44632</v>
+      </c>
+      <c r="C4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44656</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44657</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44662</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44675</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" t="s">
         <v>70</v>
       </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44703</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44751</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44767</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44812</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44818</v>
+      </c>
+      <c r="C13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44829</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44849</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" t="s">
+        <v>249</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44888</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>238</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44911</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44590</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>232</v>
+      </c>
       <c r="F18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44607</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44763</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44767</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>230</v>
+      </c>
+      <c r="E21" t="s">
+        <v>235</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44854</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D886333-151F-4F81-A8CC-E4D884E81DCA}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="112.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="3">
+        <v>43831</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="3">
+        <v>43856</v>
+      </c>
+      <c r="C3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43893</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43908</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43923</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43936</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43967</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
-        <v>45894</v>
+      <c r="D8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43968</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43996</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44002</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44067</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44076</v>
+      </c>
+      <c r="C13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13" t="s">
+        <v>291</v>
+      </c>
+      <c r="E13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44095</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44139</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>289</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44190</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44195</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>287</v>
+      </c>
+      <c r="E17" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44061</v>
+      </c>
+      <c r="C18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" t="s">
+        <v>286</v>
+      </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44079</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>285</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>45895</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44107</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>278</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>284</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>45915</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>274</v>
+      </c>
+      <c r="B21" s="4">
+        <v>44133</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>277</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>45969</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44164</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>282</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>276</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>283</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
-        <v>45970</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>45674</v>
-      </c>
-      <c r="C24" t="s">
         <v>55</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2">
-        <v>45678</v>
-      </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
-        <v>45719</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
-        <v>45744</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>45756</v>
-      </c>
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2">
-        <v>45761</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2">
-        <v>45839</v>
-      </c>
-      <c r="C30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2">
-        <v>45840</v>
-      </c>
-      <c r="C31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/01_Data/Femizide/femizide_Schweiz_raw.xlsx
+++ b/01_Data/Femizide/femizide_Schweiz_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LucaK\OneDrive\Desktop\GitHub\Femizide_Schweiz\01_Data\Femizide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0618B896-B19C-4E94-B461-B7DCE3ED7992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EB1840-0B60-4232-BD11-F9D9CC533CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6945" yWindow="4185" windowWidth="43200" windowHeight="17145" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6225" yWindow="5070" windowWidth="43200" windowHeight="17145" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="301">
   <si>
     <t>rowid</t>
   </si>
@@ -854,9 +854,6 @@
     <t>2020_21</t>
   </si>
   <si>
-    <t>Banwald</t>
-  </si>
-  <si>
     <t>Prilly</t>
   </si>
   <si>
@@ -872,9 +869,6 @@
     <t>Schwyz</t>
   </si>
   <si>
-    <t>Olten</t>
-  </si>
-  <si>
     <t>Die junge Frau überlebt. Sie ist 14 Jahre alt.</t>
   </si>
   <si>
@@ -930,6 +924,9 @@
   </si>
   <si>
     <t>Die Frau wurde 59 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Banwald in Olten</t>
   </si>
 </sst>
 </file>
@@ -1677,7 +1674,7 @@
         <v>45894</v>
       </c>
       <c r="C19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
@@ -1877,7 +1874,7 @@
         <v>45761</v>
       </c>
       <c r="C29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D29" t="s">
         <v>60</v>
@@ -2885,7 +2882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504B19E9-6DB8-44C6-AC2E-AFFBAC43FF71}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2966,7 +2963,7 @@
         <v>44632</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D4" t="s">
         <v>247</v>
@@ -3146,7 +3143,7 @@
         <v>44818</v>
       </c>
       <c r="C13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D13" t="s">
         <v>240</v>
@@ -3347,8 +3344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D886333-151F-4F81-A8CC-E4D884E81DCA}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3432,7 +3429,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -3452,7 +3449,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -3475,7 +3472,7 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -3492,10 +3489,10 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -3512,7 +3509,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -3532,7 +3529,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E9" t="s">
         <v>33</v>
@@ -3575,7 +3572,7 @@
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -3592,7 +3589,7 @@
         <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E12" t="s">
         <v>202</v>
@@ -3609,10 +3606,10 @@
         <v>44076</v>
       </c>
       <c r="C13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E13" t="s">
         <v>153</v>
@@ -3632,7 +3629,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E14" t="s">
         <v>49</v>
@@ -3652,7 +3649,7 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E15" t="s">
         <v>70</v>
@@ -3672,7 +3669,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E16" t="s">
         <v>70</v>
@@ -3692,10 +3689,10 @@
         <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -3709,13 +3706,13 @@
         <v>44061</v>
       </c>
       <c r="C18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F18" t="s">
         <v>55</v>
@@ -3732,10 +3729,10 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F19" t="s">
         <v>55</v>
@@ -3752,10 +3749,10 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F20" t="s">
         <v>55</v>
@@ -3772,7 +3769,7 @@
         <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E21" t="s">
         <v>196</v>
@@ -3789,13 +3786,13 @@
         <v>44164</v>
       </c>
       <c r="C22" t="s">
-        <v>282</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="E22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F22" t="s">
         <v>55</v>

--- a/01_Data/Femizide/femizide_Schweiz_raw.xlsx
+++ b/01_Data/Femizide/femizide_Schweiz_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LucaK\OneDrive\Desktop\GitHub\Femizide_Schweiz\01_Data\Femizide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EB1840-0B60-4232-BD11-F9D9CC533CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66635FA3-1A6A-431B-B27B-C58EB69A249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6225" yWindow="5070" windowWidth="43200" windowHeight="17145" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19875" yWindow="4125" windowWidth="23040" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Die Frau wurde 30 Jahre alt.</t>
   </si>
   <si>
-    <t>Femizid</t>
-  </si>
-  <si>
     <t>Biel</t>
   </si>
   <si>
@@ -927,6 +924,9 @@
   </si>
   <si>
     <t>Banwald in Olten</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;Femizid&lt;/u&gt;</t>
   </si>
 </sst>
 </file>
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2">
         <v>45671</v>
@@ -1343,252 +1343,252 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2">
         <v>45673</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2">
         <v>45682</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2">
         <v>45683</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2">
         <v>45695</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2">
         <v>45698</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2">
         <v>45705</v>
       </c>
       <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2">
         <v>45728</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2">
         <v>45738</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2">
         <v>45740</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="2">
         <v>45750</v>
       </c>
       <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="2">
         <v>45757</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="2">
         <v>45774</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="2">
         <v>45822</v>
@@ -1597,333 +1597,333 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
         <v>38</v>
       </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2">
         <v>45825</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="2">
         <v>45843</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="2">
         <v>45888</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="2">
         <v>45894</v>
       </c>
       <c r="C19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
         <v>44</v>
       </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="2">
         <v>45895</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="2">
         <v>45915</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
         <v>48</v>
       </c>
-      <c r="E21" t="s">
-        <v>49</v>
-      </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" s="2">
         <v>45969</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="2">
         <v>45970</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
         <v>52</v>
       </c>
-      <c r="E23" t="s">
-        <v>53</v>
-      </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" s="2">
         <v>45674</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
         <v>54</v>
-      </c>
-      <c r="E24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="2">
         <v>45678</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
         <v>56</v>
       </c>
-      <c r="E25" t="s">
-        <v>57</v>
-      </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="2">
         <v>45719</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" s="2">
         <v>45744</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" s="2">
         <v>45756</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="2">
         <v>45761</v>
       </c>
       <c r="C29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
         <v>60</v>
       </c>
-      <c r="E29" t="s">
-        <v>61</v>
-      </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="2">
         <v>45839</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" t="s">
         <v>62</v>
       </c>
-      <c r="E30" t="s">
-        <v>63</v>
-      </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="2">
         <v>45840</v>
       </c>
       <c r="C31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
         <v>65</v>
       </c>
-      <c r="D31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1937,7 +1937,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,187 +1971,187 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="3">
         <v>45296</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="3">
         <v>45306</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="3">
         <v>45322</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="3">
         <v>45335</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="3">
         <v>45367</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="3">
         <v>45376</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="3">
         <v>45433</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="3">
         <v>45447</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="3">
         <v>45479</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="3">
         <v>45501</v>
@@ -2160,118 +2160,118 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B12" s="3">
         <v>45512</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="3">
         <v>45528</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" s="3">
         <v>45541</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="3">
         <v>45546</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="3">
         <v>45571</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="3">
         <v>45588</v>
@@ -2280,113 +2280,113 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="3">
         <v>45590</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="3">
         <v>45622</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="3">
         <v>45623</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" s="3">
         <v>45629</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" s="3">
         <v>45620</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2399,7 +2399,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2434,47 +2434,47 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="3">
         <v>44972</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="3">
         <v>44994</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="3">
         <v>45006</v>
@@ -2483,198 +2483,198 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="3">
         <v>45009</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" s="3">
         <v>45011</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="3">
         <v>45024</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="3">
         <v>45030</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B9" s="3">
         <v>45072</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="3">
         <v>45073</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" s="3">
         <v>45096</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" s="3">
         <v>45102</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13" s="3">
         <v>45111</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" s="3">
         <v>45141</v>
@@ -2683,98 +2683,98 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" s="3">
         <v>45193</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" s="3">
         <v>45200</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="3">
         <v>45241</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" s="3">
         <v>45258</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F18" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B19" s="3">
         <v>45271</v>
@@ -2783,93 +2783,93 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" s="3">
         <v>44999</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B21" s="3">
         <v>44999</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B22" s="3">
         <v>45019</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B23" s="3">
         <v>45241</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2883,7 +2883,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2917,147 +2917,147 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3">
         <v>44603</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3">
         <v>44619</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" t="s">
         <v>248</v>
       </c>
-      <c r="E3" t="s">
-        <v>249</v>
-      </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4" s="3">
         <v>44632</v>
       </c>
       <c r="C4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B5" s="3">
         <v>44656</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="3">
         <v>44657</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="3">
         <v>44662</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B8" s="3">
         <v>44675</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B9" s="3">
         <v>44703</v>
@@ -3066,273 +3066,273 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B10" s="3">
         <v>44751</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B11" s="3">
         <v>44767</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B12" s="3">
         <v>44812</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B13" s="3">
         <v>44818</v>
       </c>
       <c r="C13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B14" s="3">
         <v>44829</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B15" s="3">
         <v>44849</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B16" s="3">
         <v>44888</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B17" s="3">
         <v>44911</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B18" s="3">
         <v>44590</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B19" s="3">
         <v>44607</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B20" s="3">
         <v>44763</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B21" s="3">
         <v>44767</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B22" s="3">
         <v>44854</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3344,8 +3344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D886333-151F-4F81-A8CC-E4D884E81DCA}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B2" s="3">
         <v>43831</v>
@@ -3389,413 +3389,413 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B3" s="3">
         <v>43856</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B4" s="3">
         <v>43893</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B5" s="3">
         <v>43908</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B6" s="3">
         <v>43923</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B7" s="3">
         <v>43936</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B8" s="3">
         <v>43967</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B9" s="3">
         <v>43968</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B10" s="3">
         <v>43996</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B11" s="3">
         <v>44002</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B12" s="3">
         <v>44067</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B13" s="3">
         <v>44076</v>
       </c>
       <c r="C13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B14" s="3">
         <v>44095</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B15" s="3">
         <v>44139</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B16" s="3">
         <v>44190</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B17" s="3">
         <v>44195</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B18" s="3">
         <v>44061</v>
       </c>
       <c r="C18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B19" s="3">
         <v>44079</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B20" s="3">
         <v>44107</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B21" s="4">
         <v>44133</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B22" s="3">
         <v>44164</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/01_Data/Femizide/femizide_Schweiz_raw.xlsx
+++ b/01_Data/Femizide/femizide_Schweiz_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LucaK\OneDrive\Desktop\GitHub\Femizide_Schweiz\01_Data\Femizide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66635FA3-1A6A-431B-B27B-C58EB69A249A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223FC273-A46F-4FCD-9A7C-8EEB2AA2E55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19875" yWindow="4125" windowWidth="23040" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="23385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="301">
   <si>
     <t>rowid</t>
   </si>
@@ -725,15 +725,6 @@
     <t>Die Frau überlebt. Sie ist 52 Jahre alt.</t>
   </si>
   <si>
-    <t>Sie ist 29 Jahre alt.</t>
-  </si>
-  <si>
-    <t>Sie ist 45 Jahre alt.</t>
-  </si>
-  <si>
-    <t>Sie ist 48 Jahre alt.</t>
-  </si>
-  <si>
     <t>Kehrsatz</t>
   </si>
   <si>
@@ -782,9 +773,6 @@
     <t>Hamburg, Deutschland. Ein 22-jähriger Schweizer tötet eine Frau.</t>
   </si>
   <si>
-    <t>Die Frau wurde 22 Jahre alt.</t>
-  </si>
-  <si>
     <t>Die Frau wurde 32 Jahre alt.</t>
   </si>
   <si>
@@ -927,6 +915,18 @@
   </si>
   <si>
     <t>&lt;u&gt;Femizid&lt;/u&gt;</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>Die Frau überlebt. Sie ist 29 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau überlebt. Sie ist 45 Jahre alt.</t>
+  </si>
+  <si>
+    <t>Die Frau überlebt. Sie ist 48 Jahre alt.</t>
   </si>
 </sst>
 </file>
@@ -1291,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F23"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,11 +1302,11 @@
     <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1323,10 +1323,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -1342,11 +1345,14 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -1362,11 +1368,14 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -1382,11 +1391,14 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -1402,11 +1414,14 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -1422,11 +1437,14 @@
       <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -1442,11 +1460,14 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -1462,11 +1483,14 @@
       <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -1482,11 +1506,14 @@
       <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>80</v>
       </c>
@@ -1502,11 +1529,14 @@
       <c r="E10" t="s">
         <v>66</v>
       </c>
-      <c r="F10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -1522,11 +1552,14 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -1542,11 +1575,14 @@
       <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="F12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
@@ -1562,11 +1598,14 @@
       <c r="E13" t="s">
         <v>69</v>
       </c>
-      <c r="F13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -1582,11 +1621,14 @@
       <c r="E14" t="s">
         <v>36</v>
       </c>
-      <c r="F14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -1602,11 +1644,14 @@
       <c r="E15" t="s">
         <v>38</v>
       </c>
-      <c r="F15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -1622,11 +1667,14 @@
       <c r="E16" t="s">
         <v>67</v>
       </c>
-      <c r="F16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -1642,11 +1690,14 @@
       <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="F17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -1662,11 +1713,14 @@
       <c r="E18" t="s">
         <v>68</v>
       </c>
-      <c r="F18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -1674,7 +1728,7 @@
         <v>45894</v>
       </c>
       <c r="C19" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
@@ -1682,11 +1736,14 @@
       <c r="E19" t="s">
         <v>44</v>
       </c>
-      <c r="F19" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -1702,11 +1759,14 @@
       <c r="E20" t="s">
         <v>32</v>
       </c>
-      <c r="F20" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -1722,11 +1782,14 @@
       <c r="E21" t="s">
         <v>48</v>
       </c>
-      <c r="F21" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -1742,11 +1805,14 @@
       <c r="E22" t="s">
         <v>69</v>
       </c>
-      <c r="F22" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -1762,11 +1828,14 @@
       <c r="E23" t="s">
         <v>52</v>
       </c>
-      <c r="F23" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -1782,11 +1851,14 @@
       <c r="E24" t="s">
         <v>70</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -1802,11 +1874,14 @@
       <c r="E25" t="s">
         <v>56</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -1822,11 +1897,14 @@
       <c r="E26" t="s">
         <v>57</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -1842,11 +1920,14 @@
       <c r="E27" t="s">
         <v>71</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>98</v>
       </c>
@@ -1862,11 +1943,14 @@
       <c r="E28" t="s">
         <v>58</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -1874,7 +1958,7 @@
         <v>45761</v>
       </c>
       <c r="C29" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D29" t="s">
         <v>59</v>
@@ -1882,11 +1966,14 @@
       <c r="E29" t="s">
         <v>60</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -1902,11 +1989,14 @@
       <c r="E30" t="s">
         <v>62</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>101</v>
       </c>
@@ -1922,7 +2012,10 @@
       <c r="E31" t="s">
         <v>65</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1934,10 +2027,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0ACE054-CF54-402D-BA14-1540848E52E5}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,11 +2038,12 @@
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1966,10 +2060,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -1985,11 +2082,14 @@
       <c r="E2" t="s">
         <v>152</v>
       </c>
-      <c r="F2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -2005,11 +2105,14 @@
       <c r="E3" t="s">
         <v>151</v>
       </c>
-      <c r="F3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -2025,11 +2128,14 @@
       <c r="E4" t="s">
         <v>227</v>
       </c>
-      <c r="F4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -2045,11 +2151,14 @@
       <c r="E5" t="s">
         <v>148</v>
       </c>
-      <c r="F5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -2065,11 +2174,14 @@
       <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -2085,11 +2197,14 @@
       <c r="E7" t="s">
         <v>150</v>
       </c>
-      <c r="F7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -2105,11 +2220,14 @@
       <c r="E8" t="s">
         <v>69</v>
       </c>
-      <c r="F8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -2125,11 +2243,14 @@
       <c r="E9" t="s">
         <v>48</v>
       </c>
-      <c r="F9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -2145,11 +2266,14 @@
       <c r="E10" t="s">
         <v>69</v>
       </c>
-      <c r="F10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -2165,11 +2289,14 @@
       <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -2185,11 +2312,14 @@
       <c r="E12" t="s">
         <v>149</v>
       </c>
-      <c r="F12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -2205,11 +2335,14 @@
       <c r="E13" t="s">
         <v>148</v>
       </c>
-      <c r="F13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -2225,11 +2358,14 @@
       <c r="E14" t="s">
         <v>147</v>
       </c>
-      <c r="F14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -2245,11 +2381,14 @@
       <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="F15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -2265,11 +2404,14 @@
       <c r="E16" t="s">
         <v>146</v>
       </c>
-      <c r="F16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>117</v>
       </c>
@@ -2285,11 +2427,14 @@
       <c r="E17" t="s">
         <v>143</v>
       </c>
-      <c r="F17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>118</v>
       </c>
@@ -2305,11 +2450,14 @@
       <c r="E18" t="s">
         <v>145</v>
       </c>
-      <c r="F18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -2325,11 +2473,14 @@
       <c r="E19" t="s">
         <v>52</v>
       </c>
-      <c r="F19" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>120</v>
       </c>
@@ -2345,11 +2496,14 @@
       <c r="E20" t="s">
         <v>144</v>
       </c>
-      <c r="F20" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>121</v>
       </c>
@@ -2365,11 +2519,14 @@
       <c r="E21" t="s">
         <v>143</v>
       </c>
-      <c r="F21" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -2385,7 +2542,10 @@
       <c r="E22" t="s">
         <v>142</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2396,10 +2556,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB42D47A-EC97-4604-B6C9-50F5C4DCAF25}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,10 +2569,11 @@
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2429,10 +2590,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -2448,11 +2612,14 @@
       <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>154</v>
       </c>
@@ -2468,11 +2635,14 @@
       <c r="E3" t="s">
         <v>205</v>
       </c>
-      <c r="F3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -2488,11 +2658,14 @@
       <c r="E4" t="s">
         <v>204</v>
       </c>
-      <c r="F4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -2508,11 +2681,14 @@
       <c r="E5" t="s">
         <v>69</v>
       </c>
-      <c r="F5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -2528,11 +2704,14 @@
       <c r="E6" t="s">
         <v>152</v>
       </c>
-      <c r="F6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -2548,11 +2727,14 @@
       <c r="E7" t="s">
         <v>69</v>
       </c>
-      <c r="F7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>159</v>
       </c>
@@ -2568,11 +2750,14 @@
       <c r="E8" t="s">
         <v>203</v>
       </c>
-      <c r="F8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>160</v>
       </c>
@@ -2588,11 +2773,14 @@
       <c r="E9" t="s">
         <v>202</v>
       </c>
-      <c r="F9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>161</v>
       </c>
@@ -2608,11 +2796,14 @@
       <c r="E10" t="s">
         <v>201</v>
       </c>
-      <c r="F10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -2628,11 +2819,14 @@
       <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>163</v>
       </c>
@@ -2648,11 +2842,14 @@
       <c r="E12" t="s">
         <v>200</v>
       </c>
-      <c r="F12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>164</v>
       </c>
@@ -2668,11 +2865,14 @@
       <c r="E13" t="s">
         <v>199</v>
       </c>
-      <c r="F13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>165</v>
       </c>
@@ -2688,11 +2888,14 @@
       <c r="E14" t="s">
         <v>152</v>
       </c>
-      <c r="F14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>166</v>
       </c>
@@ -2708,11 +2911,14 @@
       <c r="E15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>167</v>
       </c>
@@ -2728,11 +2934,14 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>168</v>
       </c>
@@ -2748,11 +2957,14 @@
       <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="F17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>169</v>
       </c>
@@ -2768,11 +2980,14 @@
       <c r="E18" t="s">
         <v>198</v>
       </c>
-      <c r="F18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>170</v>
       </c>
@@ -2788,11 +3003,14 @@
       <c r="E19" t="s">
         <v>197</v>
       </c>
-      <c r="F19" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -2808,11 +3026,14 @@
       <c r="E20" t="s">
         <v>195</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>172</v>
       </c>
@@ -2828,11 +3049,14 @@
       <c r="E21" t="s">
         <v>194</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>173</v>
       </c>
@@ -2848,11 +3072,14 @@
       <c r="E22" t="s">
         <v>196</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>174</v>
       </c>
@@ -2868,7 +3095,10 @@
       <c r="E23" t="s">
         <v>193</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2880,10 +3110,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504B19E9-6DB8-44C6-AC2E-AFFBAC43FF71}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2892,10 +3122,11 @@
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2912,10 +3143,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -2931,11 +3165,14 @@
       <c r="E2" t="s">
         <v>200</v>
       </c>
-      <c r="F2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>207</v>
       </c>
@@ -2946,16 +3183,19 @@
         <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>208</v>
       </c>
@@ -2963,19 +3203,22 @@
         <v>44632</v>
       </c>
       <c r="C4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>209</v>
       </c>
@@ -2986,16 +3229,19 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>210</v>
       </c>
@@ -3006,16 +3252,19 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E6" t="s">
-        <v>252</v>
-      </c>
-      <c r="F6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>211</v>
       </c>
@@ -3026,16 +3275,19 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E7" t="s">
         <v>143</v>
       </c>
-      <c r="F7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>212</v>
       </c>
@@ -3046,16 +3298,19 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E8" t="s">
         <v>69</v>
       </c>
-      <c r="F8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>213</v>
       </c>
@@ -3069,13 +3324,16 @@
         <v>189</v>
       </c>
       <c r="E9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>214</v>
       </c>
@@ -3086,16 +3344,19 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E10" t="s">
-        <v>250</v>
-      </c>
-      <c r="F10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>215</v>
       </c>
@@ -3111,11 +3372,14 @@
       <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -3126,16 +3390,19 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E12" t="s">
         <v>200</v>
       </c>
-      <c r="F12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>217</v>
       </c>
@@ -3143,19 +3410,22 @@
         <v>44818</v>
       </c>
       <c r="C13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E13" t="s">
         <v>151</v>
       </c>
-      <c r="F13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>218</v>
       </c>
@@ -3166,16 +3436,19 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E14" t="s">
-        <v>249</v>
-      </c>
-      <c r="F14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>219</v>
       </c>
@@ -3189,13 +3462,16 @@
         <v>136</v>
       </c>
       <c r="E15" t="s">
-        <v>248</v>
-      </c>
-      <c r="F15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>220</v>
       </c>
@@ -3206,16 +3482,19 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="F16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>221</v>
       </c>
@@ -3226,16 +3505,19 @@
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E17" t="s">
         <v>146</v>
       </c>
-      <c r="F17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>222</v>
       </c>
@@ -3251,11 +3533,14 @@
       <c r="E18" t="s">
         <v>231</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>223</v>
       </c>
@@ -3271,11 +3556,14 @@
       <c r="E19" t="s">
         <v>232</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>224</v>
       </c>
@@ -3289,13 +3577,16 @@
         <v>230</v>
       </c>
       <c r="E20" t="s">
-        <v>233</v>
-      </c>
-      <c r="F20" t="s">
+        <v>298</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>225</v>
       </c>
@@ -3309,13 +3600,16 @@
         <v>229</v>
       </c>
       <c r="E21" t="s">
-        <v>234</v>
-      </c>
-      <c r="F21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>226</v>
       </c>
@@ -3329,9 +3623,12 @@
         <v>228</v>
       </c>
       <c r="E22" t="s">
-        <v>235</v>
-      </c>
-      <c r="F22" t="s">
+        <v>300</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3342,10 +3639,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D886333-151F-4F81-A8CC-E4D884E81DCA}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3354,11 +3651,12 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="112.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3375,12 +3673,15 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B2" s="3">
         <v>43831</v>
@@ -3394,13 +3695,16 @@
       <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B3" s="3">
         <v>43856</v>
@@ -3414,13 +3718,16 @@
       <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B4" s="3">
         <v>43893</v>
@@ -3429,18 +3736,21 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B5" s="3">
         <v>43908</v>
@@ -3449,18 +3759,21 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B6" s="3">
         <v>43923</v>
@@ -3472,15 +3785,18 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B7" s="3">
         <v>43936</v>
@@ -3489,18 +3805,21 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B8" s="3">
         <v>43967</v>
@@ -3509,18 +3828,21 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B9" s="3">
         <v>43968</v>
@@ -3529,18 +3851,21 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B10" s="3">
         <v>43996</v>
@@ -3554,13 +3879,16 @@
       <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="F10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B11" s="3">
         <v>44002</v>
@@ -3572,15 +3900,18 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>296</v>
-      </c>
-      <c r="F11" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B12" s="3">
         <v>44067</v>
@@ -3589,38 +3920,44 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E12" t="s">
         <v>201</v>
       </c>
-      <c r="F12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B13" s="3">
         <v>44076</v>
       </c>
       <c r="C13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D13" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E13" t="s">
         <v>152</v>
       </c>
-      <c r="F13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B14" s="3">
         <v>44095</v>
@@ -3629,18 +3966,21 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E14" t="s">
         <v>48</v>
       </c>
-      <c r="F14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B15" s="3">
         <v>44139</v>
@@ -3649,18 +3989,21 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E15" t="s">
         <v>69</v>
       </c>
-      <c r="F15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B16" s="3">
         <v>44190</v>
@@ -3669,18 +4012,21 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E16" t="s">
         <v>69</v>
       </c>
-      <c r="F16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B17" s="3">
         <v>44195</v>
@@ -3689,38 +4035,44 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E17" t="s">
-        <v>295</v>
-      </c>
-      <c r="F17" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B18" s="3">
         <v>44061</v>
       </c>
       <c r="C18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18" t="s">
         <v>279</v>
       </c>
-      <c r="D18" t="s">
-        <v>278</v>
-      </c>
-      <c r="E18" t="s">
-        <v>283</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B19" s="3">
         <v>44079</v>
@@ -3729,18 +4081,21 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E19" t="s">
-        <v>282</v>
-      </c>
-      <c r="F19" t="s">
+        <v>278</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B20" s="3">
         <v>44107</v>
@@ -3749,18 +4104,21 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E20" t="s">
-        <v>281</v>
-      </c>
-      <c r="F20" t="s">
+        <v>277</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B21" s="4">
         <v>44133</v>
@@ -3769,18 +4127,21 @@
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E21" t="s">
         <v>195</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B22" s="3">
         <v>44164</v>
@@ -3789,12 +4150,15 @@
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E22" t="s">
-        <v>280</v>
-      </c>
-      <c r="F22" t="s">
+        <v>276</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
         <v>54</v>
       </c>
     </row>
